--- a/Mifos Automation Excels/Client/102-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/102-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -148,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -162,11 +162,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -208,7 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -225,9 +220,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -543,7 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -565,7 +557,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>41</v>
       </c>
     </row>
@@ -681,10 +673,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -697,7 +689,7 @@
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -717,8 +709,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
         <v>10000</v>
       </c>
       <c r="B2" s="5">
@@ -728,15 +720,14 @@
       <c r="D2" s="5">
         <v>0</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>10000</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>1666.66</v>
       </c>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>672.06</v>
       </c>
@@ -756,7 +747,7 @@
         <v>193.97</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -776,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>0</v>
       </c>
@@ -806,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -883,13 +874,13 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>42005</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>10000</v>
       </c>
       <c r="H2" s="5"/>
@@ -914,7 +905,7 @@
       <c r="B3" s="5">
         <v>31</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>42036</v>
       </c>
       <c r="D3" s="5"/>
@@ -922,7 +913,7 @@
       <c r="F3" s="5">
         <v>833.33</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>9166.67</v>
       </c>
       <c r="H3" s="5">
@@ -957,7 +948,7 @@
       <c r="B4" s="5">
         <v>28</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>42064</v>
       </c>
       <c r="D4" s="5"/>
@@ -965,7 +956,7 @@
       <c r="F4" s="5">
         <v>833.33</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>8333.34</v>
       </c>
       <c r="H4" s="5">
@@ -1000,7 +991,7 @@
       <c r="B5" s="5">
         <v>31</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>42095</v>
       </c>
       <c r="D5" s="5"/>
@@ -1008,7 +999,7 @@
       <c r="F5" s="5">
         <v>833.33</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>7500.01</v>
       </c>
       <c r="H5" s="5">
@@ -1043,7 +1034,7 @@
       <c r="B6" s="5">
         <v>30</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>42125</v>
       </c>
       <c r="D6" s="5"/>
@@ -1051,7 +1042,7 @@
       <c r="F6" s="5">
         <v>833.33</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>6666.68</v>
       </c>
       <c r="H6" s="5">
@@ -1086,7 +1077,7 @@
       <c r="B7" s="5">
         <v>31</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>42156</v>
       </c>
       <c r="D7" s="5"/>
@@ -1094,7 +1085,7 @@
       <c r="F7" s="5">
         <v>833.33</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>5833.35</v>
       </c>
       <c r="H7" s="5">
@@ -1129,7 +1120,7 @@
       <c r="B8" s="5">
         <v>30</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>42186</v>
       </c>
       <c r="D8" s="5"/>
@@ -1137,7 +1128,7 @@
       <c r="F8" s="5">
         <v>833.33</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>5000.0200000000004</v>
       </c>
       <c r="H8" s="5">
@@ -1172,7 +1163,7 @@
       <c r="B9" s="5">
         <v>31</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>42217</v>
       </c>
       <c r="D9" s="5"/>
@@ -1180,7 +1171,7 @@
       <c r="F9" s="5">
         <v>833.33</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>4166.6899999999996</v>
       </c>
       <c r="H9" s="5">
@@ -1215,7 +1206,7 @@
       <c r="B10" s="5">
         <v>31</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>42248</v>
       </c>
       <c r="D10" s="5"/>
@@ -1223,7 +1214,7 @@
       <c r="F10" s="5">
         <v>833.33</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>3333.36</v>
       </c>
       <c r="H10" s="5">
@@ -1258,7 +1249,7 @@
       <c r="B11" s="5">
         <v>30</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>42278</v>
       </c>
       <c r="D11" s="5"/>
@@ -1266,7 +1257,7 @@
       <c r="F11" s="5">
         <v>833.33</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>2500.0300000000002</v>
       </c>
       <c r="H11" s="5">
@@ -1301,7 +1292,7 @@
       <c r="B12" s="5">
         <v>31</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>42309</v>
       </c>
       <c r="D12" s="5"/>
@@ -1309,7 +1300,7 @@
       <c r="F12" s="5">
         <v>833.33</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>1666.7</v>
       </c>
       <c r="H12" s="5">
@@ -1344,7 +1335,7 @@
       <c r="B13" s="5">
         <v>30</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>42339</v>
       </c>
       <c r="D13" s="5"/>
@@ -1387,7 +1378,7 @@
       <c r="B14" s="5">
         <v>31</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>42370</v>
       </c>
       <c r="D14" s="5"/>

--- a/Mifos Automation Excels/Client/102-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/102-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -108,9 +108,6 @@
     <t>Late</t>
   </si>
   <si>
-    <t>102RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME</t>
-  </si>
-  <si>
     <t>disburse</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>disburseloan</t>
+  </si>
+  <si>
+    <t>102RBI-EPP-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-ONTIME</t>
   </si>
 </sst>
 </file>
@@ -204,10 +204,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -222,16 +223,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -241,9 +238,11 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -544,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -556,7 +555,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -566,13 +565,13 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>30</v>
+      <c r="B2" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3">
         <v>42005</v>
@@ -611,7 +610,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2">
@@ -620,7 +619,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -628,7 +627,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -644,23 +643,23 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3">
         <v>42005</v>
@@ -668,10 +667,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -682,10 +681,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -719,7 +718,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
+      <c r="A2" s="10">
         <v>10000</v>
       </c>
       <c r="B2" s="5">
@@ -729,12 +728,13 @@
       <c r="D2" s="5">
         <v>0</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="10">
         <v>10000</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="11">
         <v>1666.66</v>
       </c>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
@@ -795,19 +795,6 @@
       <c r="F5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="8"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -817,10 +804,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -894,54 +881,31 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="14">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="12">
         <v>42005</v>
       </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="12">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="10">
         <v>10000</v>
       </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
+      <c r="H2" s="5"/>
       <c r="I2" s="5">
         <v>0</v>
       </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
+      <c r="J2" s="5"/>
       <c r="K2" s="5">
         <v>0</v>
       </c>
       <c r="L2" s="5">
         <v>0</v>
       </c>
-      <c r="M2" s="5">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
-      <c r="O2" s="5">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5">
-        <v>0</v>
-      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
@@ -950,19 +914,15 @@
       <c r="B3" s="5">
         <v>31</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="12">
         <v>42036</v>
       </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="5">
         <v>833.33</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="11">
         <v>9166.67</v>
       </c>
       <c r="H3" s="5">
@@ -984,9 +944,6 @@
         <v>0</v>
       </c>
       <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5">
         <v>0</v>
       </c>
       <c r="P3" s="5">
@@ -1000,19 +957,15 @@
       <c r="B4" s="5">
         <v>28</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="12">
         <v>42064</v>
       </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="5">
         <v>833.33</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="11">
         <v>8333.34</v>
       </c>
       <c r="H4" s="5">
@@ -1034,9 +987,6 @@
         <v>0</v>
       </c>
       <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5">
         <v>0</v>
       </c>
       <c r="P4" s="5">
@@ -1050,19 +1000,15 @@
       <c r="B5" s="5">
         <v>31</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <v>42095</v>
       </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5">
         <v>833.33</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="11">
         <v>7500.01</v>
       </c>
       <c r="H5" s="5">
@@ -1084,9 +1030,6 @@
         <v>0</v>
       </c>
       <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="5">
         <v>0</v>
       </c>
       <c r="P5" s="5">
@@ -1100,19 +1043,15 @@
       <c r="B6" s="5">
         <v>30</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <v>42125</v>
       </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="5">
         <v>833.33</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="11">
         <v>6666.68</v>
       </c>
       <c r="H6" s="5">
@@ -1134,9 +1073,6 @@
         <v>0</v>
       </c>
       <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
         <v>0</v>
       </c>
       <c r="P6" s="5">
@@ -1150,19 +1086,15 @@
       <c r="B7" s="5">
         <v>31</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <v>42156</v>
       </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="5">
         <v>833.33</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="11">
         <v>5833.35</v>
       </c>
       <c r="H7" s="5">
@@ -1184,9 +1116,6 @@
         <v>0</v>
       </c>
       <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
         <v>0</v>
       </c>
       <c r="P7" s="5">
@@ -1200,19 +1129,15 @@
       <c r="B8" s="5">
         <v>30</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <v>42186</v>
       </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="5">
         <v>833.33</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="11">
         <v>5000.0200000000004</v>
       </c>
       <c r="H8" s="5">
@@ -1234,9 +1159,6 @@
         <v>0</v>
       </c>
       <c r="N8" s="5">
-        <v>0</v>
-      </c>
-      <c r="O8" s="5">
         <v>0</v>
       </c>
       <c r="P8" s="5">
@@ -1250,19 +1172,15 @@
       <c r="B9" s="5">
         <v>31</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>42217</v>
       </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="5">
         <v>833.33</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="11">
         <v>4166.6899999999996</v>
       </c>
       <c r="H9" s="5">
@@ -1284,9 +1202,6 @@
         <v>0</v>
       </c>
       <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
         <v>0</v>
       </c>
       <c r="P9" s="5">
@@ -1300,19 +1215,15 @@
       <c r="B10" s="5">
         <v>31</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <v>42248</v>
       </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="5">
         <v>833.33</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="11">
         <v>3333.36</v>
       </c>
       <c r="H10" s="5">
@@ -1334,9 +1245,6 @@
         <v>0</v>
       </c>
       <c r="N10" s="5">
-        <v>0</v>
-      </c>
-      <c r="O10" s="5">
         <v>0</v>
       </c>
       <c r="P10" s="5">
@@ -1350,19 +1258,15 @@
       <c r="B11" s="5">
         <v>30</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <v>42278</v>
       </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="5">
         <v>833.33</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="11">
         <v>2500.0300000000002</v>
       </c>
       <c r="H11" s="5">
@@ -1384,9 +1288,6 @@
         <v>0</v>
       </c>
       <c r="N11" s="5">
-        <v>0</v>
-      </c>
-      <c r="O11" s="5">
         <v>0</v>
       </c>
       <c r="P11" s="5">
@@ -1400,19 +1301,15 @@
       <c r="B12" s="5">
         <v>31</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="12">
         <v>42309</v>
       </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="5">
         <v>833.33</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="11">
         <v>1666.7</v>
       </c>
       <c r="H12" s="5">
@@ -1434,9 +1331,6 @@
         <v>0</v>
       </c>
       <c r="N12" s="5">
-        <v>0</v>
-      </c>
-      <c r="O12" s="5">
         <v>0</v>
       </c>
       <c r="P12" s="5">
@@ -1450,15 +1344,11 @@
       <c r="B13" s="5">
         <v>30</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="12">
         <v>42339</v>
       </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="5">
         <v>833.33</v>
       </c>
@@ -1484,9 +1374,6 @@
         <v>0</v>
       </c>
       <c r="N13" s="5">
-        <v>0</v>
-      </c>
-      <c r="O13" s="5">
         <v>0</v>
       </c>
       <c r="P13" s="5">
@@ -1500,15 +1387,11 @@
       <c r="B14" s="5">
         <v>31</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="12">
         <v>42370</v>
       </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="5">
         <v>833.37</v>
       </c>
@@ -1536,15 +1419,9 @@
       <c r="N14" s="5">
         <v>0</v>
       </c>
-      <c r="O14" s="5">
-        <v>0</v>
-      </c>
       <c r="P14" s="5">
         <v>841.86</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/102-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/102-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-Newcreateloan.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
@@ -147,7 +152,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -242,6 +247,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -289,7 +297,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,9 +330,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,6 +382,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -795,10 +837,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -816,12 +858,13 @@
     <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="15" max="15" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -861,17 +904,18 @@
       <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="11">
@@ -896,9 +940,10 @@
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="P2" s="5"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O2" s="5"/>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -934,14 +979,15 @@
       <c r="M3" s="5">
         <v>0</v>
       </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5">
+      <c r="N3" s="5"/>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
         <v>935.25</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -977,14 +1023,15 @@
       <c r="M4" s="5">
         <v>0</v>
       </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5">
+      <c r="N4" s="5"/>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
         <v>925.38</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1020,14 +1067,15 @@
       <c r="M5" s="5">
         <v>0</v>
       </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5">
+      <c r="N5" s="5"/>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
         <v>935.25</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -1063,14 +1111,15 @@
       <c r="M6" s="5">
         <v>0</v>
       </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5">
+      <c r="N6" s="5"/>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
         <v>907.3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -1106,14 +1155,15 @@
       <c r="M7" s="5">
         <v>0</v>
       </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5">
+      <c r="N7" s="5"/>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
         <v>901.28</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1149,14 +1199,15 @@
       <c r="M8" s="5">
         <v>0</v>
       </c>
-      <c r="N8" s="5">
-        <v>0</v>
-      </c>
-      <c r="P8" s="5">
+      <c r="N8" s="5"/>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
         <v>890.86</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1192,14 +1243,15 @@
       <c r="M9" s="5">
         <v>0</v>
       </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5">
+      <c r="N9" s="5"/>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
         <v>884.29</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1235,14 +1287,15 @@
       <c r="M10" s="5">
         <v>0</v>
       </c>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
-      <c r="P10" s="5">
+      <c r="N10" s="5"/>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
         <v>875.8</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1278,14 +1331,15 @@
       <c r="M11" s="5">
         <v>0</v>
       </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5">
+      <c r="N11" s="5"/>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
         <v>866.21</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1321,14 +1375,15 @@
       <c r="M12" s="5">
         <v>0</v>
       </c>
-      <c r="N12" s="5">
-        <v>0</v>
-      </c>
-      <c r="P12" s="5">
+      <c r="N12" s="5"/>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5">
         <v>858.81</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1364,14 +1419,15 @@
       <c r="M13" s="5">
         <v>0</v>
       </c>
-      <c r="N13" s="5">
-        <v>0</v>
-      </c>
-      <c r="P13" s="5">
+      <c r="N13" s="5"/>
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5">
         <v>849.77</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1407,10 +1463,11 @@
       <c r="M14" s="5">
         <v>0</v>
       </c>
-      <c r="N14" s="5">
-        <v>0</v>
-      </c>
-      <c r="P14" s="5">
+      <c r="N14" s="5"/>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5">
         <v>841.86</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/102-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/102-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-Newcreateloan.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -152,7 +147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -297,7 +292,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,26 +325,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -382,23 +360,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -717,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -839,7 +800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
